--- a/OREI_files/10-herd data/excel files for data organization/workbook for calculating time between herd visits.xlsx
+++ b/OREI_files/10-herd data/excel files for data organization/workbook for calculating time between herd visits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/excel files for data organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CD32A3-56A0-437A-86BD-A18316F715CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D5CD32A3-56A0-437A-86BD-A18316F715CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AF57D3C-E763-4AAF-A690-971987086E40}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{89FF2069-7572-4EDE-8838-B08782EB5231}"/>
   </bookViews>
@@ -191,13 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -516,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2372FD45-EEDB-40F8-B974-4585007DAD9C}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="A22" sqref="A22:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,6 +768,9 @@
       <c r="C22">
         <v>43852</v>
       </c>
+      <c r="K22">
+        <v>27</v>
+      </c>
       <c r="L22">
         <v>43</v>
       </c>
@@ -783,6 +785,9 @@
       <c r="C23">
         <v>43889</v>
       </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
       <c r="L23">
         <v>35</v>
       </c>
@@ -797,6 +802,9 @@
       <c r="C24">
         <v>43811</v>
       </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
       <c r="L24">
         <v>36</v>
       </c>
@@ -811,6 +819,9 @@
       <c r="C25">
         <v>43840</v>
       </c>
+      <c r="K25">
+        <v>28</v>
+      </c>
       <c r="L25">
         <v>41</v>
       </c>
@@ -825,6 +836,9 @@
       <c r="C26">
         <v>43832</v>
       </c>
+      <c r="K26">
+        <v>28</v>
+      </c>
       <c r="L26">
         <v>42</v>
       </c>
@@ -839,6 +853,9 @@
       <c r="C27">
         <v>43865</v>
       </c>
+      <c r="K27">
+        <v>28</v>
+      </c>
       <c r="L27">
         <v>42</v>
       </c>
@@ -853,6 +870,9 @@
       <c r="C28">
         <v>43893</v>
       </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
       <c r="L28">
         <v>40</v>
       </c>
@@ -867,6 +887,9 @@
       <c r="C29">
         <v>43836</v>
       </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
       <c r="L29">
         <v>29</v>
       </c>
@@ -881,6 +904,9 @@
       <c r="C30">
         <v>43873</v>
       </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
       <c r="L30">
         <v>33</v>
       </c>
@@ -895,6 +921,9 @@
       <c r="C31">
         <v>43900</v>
       </c>
+      <c r="K31">
+        <v>33</v>
+      </c>
       <c r="L31">
         <v>37</v>
       </c>
@@ -909,6 +938,9 @@
       <c r="H32" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="K32">
+        <v>35</v>
+      </c>
       <c r="L32">
         <v>28</v>
       </c>
@@ -933,12 +965,15 @@
         <f>C33-B33</f>
         <v>43</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <f>D33-C33</f>
         <v>28</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
+      <c r="H33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <v>35</v>
       </c>
       <c r="L33">
         <v>28</v>
@@ -964,12 +999,15 @@
         <f t="shared" ref="F34:F42" si="0">C34-B34</f>
         <v>35</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34">
         <f t="shared" ref="G34:G42" si="1">D34-C34</f>
         <v>28</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
+      <c r="H34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>36</v>
       </c>
       <c r="L34">
         <v>29</v>
@@ -995,12 +1033,15 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>13</v>
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>37</v>
       </c>
       <c r="L35">
         <v>27</v>
@@ -1026,13 +1067,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f>E36-D36</f>
         <v>28</v>
+      </c>
+      <c r="K36">
+        <v>37</v>
       </c>
       <c r="L36">
         <v>35</v>
@@ -1058,12 +1102,15 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
+      <c r="H37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>40</v>
       </c>
       <c r="L37">
         <v>27</v>
@@ -1089,12 +1136,15 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>13</v>
+      <c r="H38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>41</v>
       </c>
       <c r="L38">
         <v>37</v>
@@ -1120,12 +1170,15 @@
         <f>C39-B39</f>
         <v>40</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39">
         <f>D39-C39</f>
         <v>37</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>13</v>
+      <c r="H39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39">
+        <v>42</v>
       </c>
       <c r="L39">
         <v>28</v>
@@ -1151,11 +1204,14 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>13</v>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <v>42</v>
       </c>
       <c r="L40">
         <v>28</v>
@@ -1181,12 +1237,15 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>13</v>
+      <c r="H41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41">
+        <v>43</v>
       </c>
       <c r="L41">
         <v>27</v>
@@ -1212,15 +1271,15 @@
       <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="M42">
@@ -1228,7 +1287,16 @@
         <v>33.6</v>
       </c>
     </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <f>MEDIAN(K22:K41)</f>
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K22:K41">
+    <sortCondition ref="K22:K41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>